--- a/Company X - Order Report.xlsx
+++ b/Company X - Order Report.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Cointab\Human Resource\Hiring\Data Analyst\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Projects\Notebboks\CoinTab\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -443,7 +443,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -475,7 +475,7 @@
   </cellStyleXfs>
   <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -758,14 +758,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C401"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B18" sqref="B18"/>
+    <sheetView tabSelected="1" topLeftCell="A112" workbookViewId="0">
+      <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="21.42578125" customWidth="1"/>
+    <col min="1" max="1" width="25.5703125" customWidth="1"/>
+    <col min="2" max="2" width="39.7109375" style="1" customWidth="1"/>
     <col min="3" max="3" width="9.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -773,7 +773,7 @@
       <c r="A1" t="s">
         <v>135</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="1" t="s">
         <v>136</v>
       </c>
       <c r="C1" t="s">
@@ -839,7 +839,7 @@
       <c r="A7" t="s">
         <v>0</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="C7" t="s">
@@ -861,7 +861,7 @@
       <c r="A9" t="s">
         <v>0</v>
       </c>
-      <c r="B9" t="s">
+      <c r="B9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="C9" t="s">
@@ -916,7 +916,7 @@
       <c r="A14" t="s">
         <v>5</v>
       </c>
-      <c r="B14" t="s">
+      <c r="B14" s="1" t="s">
         <v>4</v>
       </c>
       <c r="C14" t="s">
@@ -1290,7 +1290,7 @@
       <c r="A48" t="s">
         <v>22</v>
       </c>
-      <c r="B48" t="s">
+      <c r="B48" s="1" t="s">
         <v>4</v>
       </c>
       <c r="C48" t="s">
@@ -1697,7 +1697,7 @@
       <c r="A85" t="s">
         <v>33</v>
       </c>
-      <c r="B85" t="s">
+      <c r="B85" s="1" t="s">
         <v>34</v>
       </c>
       <c r="C85" t="s">
@@ -2731,7 +2731,7 @@
       <c r="A179" t="s">
         <v>58</v>
       </c>
-      <c r="B179" t="s">
+      <c r="B179" s="1" t="s">
         <v>59</v>
       </c>
       <c r="C179" t="s">
@@ -3116,7 +3116,7 @@
       <c r="A214" t="s">
         <v>70</v>
       </c>
-      <c r="B214" t="s">
+      <c r="B214" s="1" t="s">
         <v>71</v>
       </c>
       <c r="C214" t="s">
@@ -5182,5 +5182,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>